--- a/Search center.xlsx
+++ b/Search center.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Summary</t>
   </si>
@@ -62,68 +62,7 @@
     <t>As a user I can see the search results at search center splitted by tabs according to item type.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">1. Enter search term into the search field.
-2. Click Search button or select option from drop- down.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>: Search center is opened. There are:
-* 4 tabs Images, Videos, Documents, Pages. Each contains items: Images, Videos, Documents, CMS Pages respectively that matched to serch term
-* Field with search button
-* Filter pannel</t>
-    </r>
-  </si>
-  <si>
     <t>As a user I can see numbers of found items in front of tab name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">1. Enter search term into the search field.
-2. Click Search button or select option from drop- down.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>: Search center is opened. There are 4 tabs Images, Videos, Documents, Pages.Number of found item are displayed near each tab.</t>
-    </r>
   </si>
   <si>
     <t>As a user I can edit search term and see search relult according to new search term</t>
@@ -333,12 +272,134 @@
 Created in range</t>
     </r>
   </si>
+  <si>
+    <t>As a user I can see suggestions during search at search box</t>
+  </si>
+  <si>
+    <t>As a user I can see suggestions during search at search center</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Start typing any search term
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Drop-down with suggested variants appeared. Suggestions based on entered data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter search term into the search field.
+2. Click Search button or select option from drop- down.
+3. Remove search term from search field and start typing new search term.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Drop-down with suggested variants appeared. Suggestions based on entered data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter search term into the search field.
+2. Click Search button or select option from drop- down.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: Search center is opened. There are:
+* 4 tabs Images, Videos, Documents, Pages, People. Each contains items: Images, Videos, Documents, CMS Pages and Users respectively that matched to serch term
+* Field with search button
+* Filter pannel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter search term into the search field.
+2. Click Search button or select option from drop- down.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: Search center is opened. There are 4 tabs Images, Videos, Documents, Pages, Peoples.Number of found item are displayed near each tab.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -368,6 +429,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,6 +500,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +725,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -664,71 +753,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>